--- a/expected_message.xlsx
+++ b/expected_message.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsaac/pythonProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9944AB1-C84A-D84B-AEA8-F97026AA8D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DC0789-8108-4647-B573-0E2BBA4999B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0F2379A7-E719-E444-A1EE-568BA946FCB0}"/>
+    <workbookView xWindow="-38400" yWindow="-2740" windowWidth="38400" windowHeight="21600" xr2:uid="{0F2379A7-E719-E444-A1EE-568BA946FCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>kendo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>section=all&amp;action=stop_fooling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03422715157119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034267144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034227151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=baseball&amp;action=check_questionable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softballwin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=baseball&amp;action=stop_fooling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +270,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE70D9A-A096-9B47-BC9D-011567E9187E}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="188" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="188" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -693,8 +720,8 @@
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>3422715157119</v>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -704,8 +731,8 @@
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
-        <v>34267144</v>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -715,8 +742,8 @@
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>34227151</v>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -774,7 +801,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -785,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -796,7 +823,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -812,56 +839,78 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>39.5</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>36</v>
       </c>
     </row>

--- a/expected_message.xlsx
+++ b/expected_message.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsaac/pythonProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DC0789-8108-4647-B573-0E2BBA4999B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57585405-AAB4-D74D-9C6D-6A857E593D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2740" windowWidth="38400" windowHeight="21600" xr2:uid="{0F2379A7-E719-E444-A1EE-568BA946FCB0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0F2379A7-E719-E444-A1EE-568BA946FCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>kendo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,123 +82,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>section=baseball&amp;action=give_cctv_open_mailbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=baseball&amp;action=not_their_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=baseball&amp;action=connect_extension_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=baseball&amp;action=empty_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension_number</t>
+  </si>
+  <si>
+    <t>section=baseball&amp;action=military_office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=baseball&amp;action=wrong_extension_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseball_mailbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壘球社</t>
+  </si>
+  <si>
+    <t>松濤壘球聯盟社</t>
+  </si>
+  <si>
+    <t>松濤壘球聯盟</t>
+  </si>
+  <si>
+    <t>section=baseball&amp;action=contact_baseball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=baseball&amp;action=wrong_mailbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=football&amp;action=look_familiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=football&amp;action=wrong_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=football&amp;action=football_picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=football&amp;action=check_again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=all&amp;action=stop_fooling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03422715157119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034267144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034227151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=baseball&amp;action=check_questionable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softballwin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=baseball&amp;action=stop_fooling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>034227151#57119</t>
-  </si>
-  <si>
-    <t>section=baseball&amp;action=give_cctv_open_mailbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=baseball&amp;action=not_their_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=baseball&amp;action=connect_extension_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=baseball&amp;action=empty_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extension_number</t>
-  </si>
-  <si>
-    <t>section=baseball&amp;action=military_office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=baseball&amp;action=wrong_extension_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseball_mailbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壘球社</t>
-  </si>
-  <si>
-    <t>松濤壘球聯盟社</t>
-  </si>
-  <si>
-    <t>松濤壘球聯盟</t>
-  </si>
-  <si>
-    <t>section=baseball&amp;action=contact_baseball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=baseball&amp;action=wrong_mailbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=football&amp;action=look_familiar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=football&amp;action=wrong_place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>有球</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=football&amp;action=football_picture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=football&amp;action=check_again</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=all&amp;action=stop_fooling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03422715157119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>034267144</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>034227151</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=baseball&amp;action=check_questionable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>softballwin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section=baseball&amp;action=stop_fooling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=kendo&amp;action=wrong_answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-4227151#57119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-422715157119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-4227151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoftBallWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOFTBALLlWIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壘球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,6 +260,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -274,6 +302,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE70D9A-A096-9B47-BC9D-011567E9187E}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="188" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -658,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -710,21 +747,21 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -732,10 +769,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -743,175 +780,241 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <v>57212</v>
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2">
-        <v>57119</v>
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="A17" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>57212</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>57119</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
-        <v>36</v>
+      <c r="C29" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
